--- a/tabelle emotionen.xlsx
+++ b/tabelle emotionen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Joy</t>
   </si>
@@ -53,15 +53,9 @@
     <t>intensity</t>
   </si>
   <si>
-    <t>0-4,0 = s</t>
-  </si>
-  <si>
     <t>4,0-5 = m</t>
   </si>
   <si>
-    <t>5-6,5 = f</t>
-  </si>
-  <si>
     <t>h</t>
   </si>
   <si>
@@ -69,6 +63,39 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>wenn Speaking rate = l</t>
+  </si>
+  <si>
+    <t>wenn Speaking rate = m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl(omega) </t>
+  </si>
+  <si>
+    <t>senn Speaking rate = h</t>
+  </si>
+  <si>
+    <t>Pl({j,f,s,a})</t>
+  </si>
+  <si>
+    <t>0-4,0 = l</t>
+  </si>
+  <si>
+    <t>5-6,5 = h</t>
+  </si>
+  <si>
+    <t>wenn pitch = l</t>
+  </si>
+  <si>
+    <t>wenn intensity = l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pl({sa,d}) </t>
+  </si>
+  <si>
+    <t>Pl({d,sa})</t>
   </si>
 </sst>
 </file>
@@ -394,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D16"/>
+  <dimension ref="A2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -413,103 +440,143 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>0.8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/tabelle emotionen.xlsx
+++ b/tabelle emotionen.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Joy</t>
   </si>
@@ -96,6 +97,27 @@
   </si>
   <si>
     <t>Pl({d,sa})</t>
+  </si>
+  <si>
+    <t>wenn pitch = m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wenn pitch = h </t>
+  </si>
+  <si>
+    <t>Pl({j,f,su,a})</t>
+  </si>
+  <si>
+    <t>wenn intensity = m</t>
+  </si>
+  <si>
+    <t>wenn intensity = h</t>
+  </si>
+  <si>
+    <t>Pl({f})</t>
+  </si>
+  <si>
+    <t>Pl({a,su,j})</t>
   </si>
 </sst>
 </file>
@@ -421,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N16"/>
+  <dimension ref="A2:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -440,7 +462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -454,7 +476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -468,7 +490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -487,11 +509,11 @@
       <c r="L5" t="s">
         <v>20</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -513,8 +535,17 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>0.8</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -530,8 +561,14 @@
       <c r="I7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -550,31 +587,61 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I10" t="s">
         <v>17</v>
       </c>
       <c r="J10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <v>0.8</v>
+      </c>
+      <c r="O10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>19</v>
       </c>
